--- a/Divisions/Simulations.xlsx
+++ b/Divisions/Simulations.xlsx
@@ -970,138 +970,141 @@
     <t>79</t>
   </si>
   <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>-21</t>
+  </si>
+  <si>
+    <t>-32</t>
+  </si>
+  <si>
+    <t>-41</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>e2_teams</t>
+  </si>
+  <si>
+    <t>e2_games_played_sim</t>
+  </si>
+  <si>
+    <t>e2_total_wins_sim</t>
+  </si>
+  <si>
+    <t>e2_total_draws_sim</t>
+  </si>
+  <si>
+    <t>e2_total_loss_sim</t>
+  </si>
+  <si>
+    <t>e2_PTS_sim</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>e3_GD</t>
+  </si>
+  <si>
+    <t>e3_PTS</t>
+  </si>
+  <si>
+    <t>e3_rank</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
     <t>-6</t>
   </si>
   <si>
-    <t>-12</t>
-  </si>
-  <si>
-    <t>-21</t>
-  </si>
-  <si>
-    <t>-32</t>
-  </si>
-  <si>
-    <t>-41</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>e2_teams</t>
-  </si>
-  <si>
-    <t>e2_games_played_sim</t>
-  </si>
-  <si>
-    <t>e2_total_wins_sim</t>
-  </si>
-  <si>
-    <t>e2_total_draws_sim</t>
-  </si>
-  <si>
-    <t>e2_total_loss_sim</t>
-  </si>
-  <si>
-    <t>e2_PTS_sim</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>e3_GD</t>
-  </si>
-  <si>
-    <t>e3_PTS</t>
-  </si>
-  <si>
-    <t>e3_rank</t>
-  </si>
-  <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Harrogate</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
     <t>-25</t>
   </si>
   <si>
+    <t>-23</t>
+  </si>
+  <si>
     <t>-42</t>
   </si>
   <si>
@@ -1144,30 +1147,30 @@
     <t>Wrexham</t>
   </si>
   <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
     <t>Boreham Wood</t>
   </si>
   <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
     <t>Grimsby</t>
   </si>
   <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
     <t>Bromley</t>
   </si>
   <si>
-    <t>Dag and Red</t>
+    <t>Torquay</t>
   </si>
   <si>
     <t>Southend</t>
   </si>
   <si>
-    <t>Torquay</t>
-  </si>
-  <si>
     <t>Yeovil</t>
   </si>
   <si>
@@ -1180,15 +1183,15 @@
     <t>Barnet</t>
   </si>
   <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
     <t>Wealdstone</t>
   </si>
   <si>
     <t>Eastleigh</t>
   </si>
   <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
     <t>Aldershot</t>
   </si>
   <si>
@@ -1201,6 +1204,12 @@
     <t>Dover Athletic</t>
   </si>
   <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>-34</t>
+  </si>
+  <si>
     <t>-53</t>
   </si>
   <si>
@@ -1225,9 +1234,6 @@
     <t>98</t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>86</t>
   </si>
   <si>
@@ -1300,9 +1306,6 @@
     <t>Bordeaux</t>
   </si>
   <si>
-    <t>-23</t>
-  </si>
-  <si>
     <t>-19</t>
   </si>
   <si>
@@ -1550,9 +1553,6 @@
   </si>
   <si>
     <t>Salernitana</t>
-  </si>
-  <si>
-    <t>-24</t>
   </si>
   <si>
     <t>-43</t>
@@ -6805,7 +6805,7 @@
         <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -6889,10 +6889,10 @@
         <v>277</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -6901,16 +6901,16 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
         <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -7204,7 +7204,7 @@
         <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -7213,16 +7213,16 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
         <v>108</v>
       </c>
       <c r="H14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I14" t="s">
-        <v>299</v>
+        <v>179</v>
       </c>
       <c r="J14" t="s">
         <v>136</v>
@@ -7257,7 +7257,7 @@
         <v>135</v>
       </c>
       <c r="I15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J15" t="s">
         <v>69</v>
@@ -7502,7 +7502,7 @@
         <v>156</v>
       </c>
       <c r="I22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J22" t="s">
         <v>88</v>
@@ -7537,7 +7537,7 @@
         <v>298</v>
       </c>
       <c r="I23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J23" t="s">
         <v>46</v>
@@ -7607,7 +7607,7 @@
         <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J25" t="s">
         <v>137</v>
@@ -7632,22 +7632,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" t="s">
         <v>305</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>306</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>307</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>308</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>309</v>
-      </c>
-      <c r="G1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="2">
@@ -7796,19 +7796,19 @@
         <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -7940,13 +7940,13 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -8026,10 +8026,10 @@
         <v>277</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -8038,7 +8038,7 @@
         <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -8279,7 +8279,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
@@ -8302,7 +8302,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5">
@@ -8325,7 +8325,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6">
@@ -8348,7 +8348,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7">
@@ -8371,7 +8371,7 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8">
@@ -8394,7 +8394,7 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9">
@@ -8523,16 +8523,16 @@
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
@@ -8618,13 +8618,13 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
@@ -8825,13 +8825,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J1" t="s">
         <v>315</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>316</v>
-      </c>
-      <c r="K1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2">
@@ -8839,13 +8839,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -8854,16 +8854,16 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
         <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -8874,16 +8874,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -8898,7 +8898,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -8909,7 +8909,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
@@ -8944,7 +8944,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
@@ -8979,7 +8979,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -9014,7 +9014,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
@@ -9049,7 +9049,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C8" t="s">
         <v>87</v>
@@ -9064,10 +9064,10 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
         <v>23</v>
@@ -9084,31 +9084,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -9119,7 +9119,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
@@ -9128,22 +9128,22 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
         <v>108</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -9154,13 +9154,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -9169,16 +9169,16 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="H11" t="s">
         <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -9189,7 +9189,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C12" t="s">
         <v>67</v>
@@ -9224,7 +9224,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -9259,7 +9259,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -9280,7 +9280,7 @@
         <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="J14" t="s">
         <v>147</v>
@@ -9294,7 +9294,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
@@ -9329,7 +9329,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C16" t="s">
         <v>87</v>
@@ -9364,10 +9364,10 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -9376,16 +9376,16 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
         <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
         <v>75</v>
@@ -9399,7 +9399,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
@@ -9434,13 +9434,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
@@ -9449,16 +9449,16 @@
         <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H19" t="s">
         <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -9469,10 +9469,10 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -9481,16 +9481,16 @@
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
         <v>134</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="J20" t="s">
         <v>70</v>
@@ -9504,10 +9504,10 @@
         <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -9516,16 +9516,16 @@
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
         <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J21" t="s">
         <v>63</v>
@@ -9539,7 +9539,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
@@ -9574,7 +9574,7 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
@@ -9609,10 +9609,10 @@
         <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
@@ -9621,16 +9621,16 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="G24" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="H24" t="s">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="I24" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
@@ -9644,7 +9644,7 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C25" t="s">
         <v>87</v>
@@ -9665,7 +9665,7 @@
         <v>74</v>
       </c>
       <c r="I25" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J25" t="s">
         <v>51</v>
@@ -10138,22 +10138,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2">
@@ -10161,7 +10161,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -10184,22 +10184,22 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -10207,7 +10207,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -10230,7 +10230,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -10239,13 +10239,13 @@
         <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -10253,10 +10253,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>96</v>
@@ -10265,7 +10265,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -10276,7 +10276,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -10299,22 +10299,22 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -10322,13 +10322,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -10337,7 +10337,7 @@
         <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
@@ -10345,22 +10345,22 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -10368,7 +10368,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -10391,10 +10391,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -10403,7 +10403,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
@@ -10414,22 +10414,22 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -10437,7 +10437,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -10460,7 +10460,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -10483,22 +10483,22 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -10509,19 +10509,19 @@
         <v>325</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
         <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -10529,22 +10529,22 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
         <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -10552,7 +10552,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -10575,7 +10575,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -10598,7 +10598,7 @@
         <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -10621,22 +10621,22 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
         <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -10667,7 +10667,7 @@
         <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -10690,7 +10690,7 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -10747,7 +10747,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -10770,30 +10770,30 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>304</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -10802,13 +10802,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>298</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
@@ -10816,7 +10816,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
@@ -10836,22 +10836,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
         <v>212</v>
@@ -10859,22 +10859,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>212</v>
@@ -10885,7 +10885,7 @@
         <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
@@ -10905,33 +10905,33 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
@@ -10951,10 +10951,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C11" t="s">
         <v>61</v>
@@ -10963,13 +10963,13 @@
         <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -10977,7 +10977,7 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
@@ -11000,7 +11000,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
@@ -11023,7 +11023,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
@@ -11043,45 +11043,45 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>227</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
         <v>227</v>
@@ -11089,48 +11089,48 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
@@ -11138,7 +11138,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C19" t="s">
         <v>61</v>
@@ -11147,13 +11147,13 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20">
@@ -11161,7 +11161,7 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
@@ -11170,13 +11170,13 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -11184,7 +11184,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C21" t="s">
         <v>61</v>
@@ -11207,7 +11207,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C22" t="s">
         <v>61</v>
@@ -11230,7 +11230,7 @@
         <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C23" t="s">
         <v>61</v>
@@ -11253,7 +11253,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C24" t="s">
         <v>61</v>
@@ -11262,13 +11262,13 @@
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
@@ -11276,7 +11276,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
@@ -11331,13 +11331,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2">
@@ -11345,13 +11345,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -11360,16 +11360,16 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
         <v>132</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>155</v>
+        <v>256</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -11380,10 +11380,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -11392,16 +11392,16 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>135</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
         <v>84</v>
@@ -11415,10 +11415,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
         <v>103</v>
@@ -11427,16 +11427,16 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="J4" t="s">
         <v>84</v>
@@ -11450,13 +11450,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -11465,16 +11465,16 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -11485,31 +11485,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
         <v>104</v>
       </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -11520,31 +11520,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -11555,31 +11555,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -11590,10 +11590,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -11602,16 +11602,16 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
         <v>227</v>
@@ -11625,31 +11625,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -11660,31 +11660,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -11695,13 +11695,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -11710,16 +11710,16 @@
         <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="I12" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -11730,10 +11730,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -11742,16 +11742,16 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="J13" t="s">
         <v>69</v>
@@ -11765,13 +11765,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -11780,16 +11780,16 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -11800,13 +11800,13 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -11815,16 +11815,16 @@
         <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
         <v>227</v>
       </c>
       <c r="I15" t="s">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -11835,13 +11835,13 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -11850,16 +11850,16 @@
         <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="H16" t="s">
         <v>147</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -11870,7 +11870,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C17" t="s">
         <v>88</v>
@@ -11905,10 +11905,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -11917,16 +11917,16 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
@@ -11940,7 +11940,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C19" t="s">
         <v>88</v>
@@ -11949,22 +11949,22 @@
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -11975,31 +11975,31 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>227</v>
+        <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>301</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -12010,10 +12010,10 @@
         <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -12022,16 +12022,16 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
         <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="I21" t="s">
-        <v>259</v>
+        <v>377</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -12045,10 +12045,10 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -12057,16 +12057,16 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s">
-        <v>302</v>
+        <v>378</v>
       </c>
       <c r="J22" t="s">
         <v>48</v>
@@ -12080,10 +12080,10 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -12092,16 +12092,16 @@
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="J23" t="s">
         <v>50</v>
@@ -12115,7 +12115,7 @@
         <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C24" t="s">
         <v>88</v>
@@ -12136,7 +12136,7 @@
         <v>256</v>
       </c>
       <c r="I24" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
@@ -12161,22 +12161,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2">
@@ -12184,13 +12184,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -12199,7 +12199,7 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -12207,10 +12207,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -12219,7 +12219,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -12230,7 +12230,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -12253,10 +12253,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -12265,7 +12265,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>103</v>
@@ -12276,22 +12276,22 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -12299,22 +12299,22 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -12325,19 +12325,19 @@
         <v>362</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -12345,7 +12345,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -12368,22 +12368,22 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -12391,22 +12391,22 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -12414,22 +12414,22 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -12437,10 +12437,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -12449,7 +12449,7 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -12460,10 +12460,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -12472,7 +12472,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -12486,19 +12486,19 @@
         <v>359</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -12509,19 +12509,19 @@
         <v>358</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
@@ -12529,22 +12529,22 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -12552,13 +12552,13 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -12567,7 +12567,7 @@
         <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -12578,19 +12578,19 @@
         <v>364</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -12598,7 +12598,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -12621,22 +12621,22 @@
         <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -12644,13 +12644,13 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -12659,7 +12659,7 @@
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -12667,22 +12667,22 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24">
@@ -12690,22 +12690,22 @@
         <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -12747,7 +12747,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C2" t="s">
         <v>75</v>
@@ -12762,7 +12762,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3">
@@ -12770,22 +12770,22 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C3" t="s">
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>384</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
@@ -12799,16 +12799,16 @@
         <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
@@ -12816,7 +12816,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -12825,33 +12825,33 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>385</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>226</v>
@@ -12859,25 +12859,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>130</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8">
@@ -12885,7 +12885,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -12908,7 +12908,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C9" t="s">
         <v>75</v>
@@ -12917,13 +12917,13 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10">
@@ -12931,7 +12931,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
@@ -12940,13 +12940,13 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
       <c r="G10" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11">
@@ -12960,16 +12960,16 @@
         <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -12983,47 +12983,47 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C13" t="s">
         <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C14" t="s">
         <v>75</v>
@@ -13032,59 +13032,59 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C15" t="s">
         <v>75</v>
       </c>
       <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
         <v>25</v>
       </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C16" t="s">
         <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -13092,7 +13092,7 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C17" t="s">
         <v>75</v>
@@ -13115,7 +13115,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C18" t="s">
         <v>75</v>
@@ -13124,21 +13124,21 @@
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C19" t="s">
         <v>75</v>
@@ -13147,36 +13147,36 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C20" t="s">
         <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
         <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -13184,22 +13184,22 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C21" t="s">
         <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -13207,7 +13207,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C22" t="s">
         <v>75</v>
@@ -13230,7 +13230,7 @@
         <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C23" t="s">
         <v>75</v>
@@ -13239,13 +13239,13 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24">
@@ -13253,7 +13253,7 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -13308,13 +13308,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2">
@@ -13322,7 +13322,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C2" t="s">
         <v>132</v>
@@ -13357,7 +13357,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C3" t="s">
         <v>132</v>
@@ -13392,7 +13392,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C4" t="s">
         <v>132</v>
@@ -13427,7 +13427,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C5" t="s">
         <v>132</v>
@@ -13462,7 +13462,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C6" t="s">
         <v>132</v>
@@ -13497,7 +13497,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C7" t="s">
         <v>132</v>
@@ -13532,7 +13532,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C8" t="s">
         <v>132</v>
@@ -13567,7 +13567,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C9" t="s">
         <v>132</v>
@@ -13602,7 +13602,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C10" t="s">
         <v>132</v>
@@ -13637,7 +13637,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C11" t="s">
         <v>132</v>
@@ -13672,7 +13672,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C12" t="s">
         <v>132</v>
@@ -13707,7 +13707,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C13" t="s">
         <v>132</v>
@@ -13742,7 +13742,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C14" t="s">
         <v>132</v>
@@ -13777,7 +13777,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C15" t="s">
         <v>132</v>
@@ -13812,7 +13812,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C16" t="s">
         <v>132</v>
@@ -13847,7 +13847,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C17" t="s">
         <v>132</v>
@@ -13868,7 +13868,7 @@
         <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="J17" t="s">
         <v>65</v>
@@ -13882,7 +13882,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C18" t="s">
         <v>132</v>
@@ -13903,7 +13903,7 @@
         <v>71</v>
       </c>
       <c r="I18" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J18" t="s">
         <v>65</v>
@@ -13917,7 +13917,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C19" t="s">
         <v>132</v>
@@ -13952,7 +13952,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C20" t="s">
         <v>132</v>
@@ -13987,7 +13987,7 @@
         <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C21" t="s">
         <v>132</v>
@@ -14008,7 +14008,7 @@
         <v>52</v>
       </c>
       <c r="I21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J21" t="s">
         <v>48</v>
@@ -14033,22 +14033,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2">
@@ -14056,7 +14056,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -14079,7 +14079,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -14102,7 +14102,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -14125,7 +14125,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -14148,7 +14148,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -14171,7 +14171,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -14194,7 +14194,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -14217,7 +14217,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -14240,7 +14240,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -14263,7 +14263,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -14286,7 +14286,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -14309,7 +14309,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -14332,7 +14332,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -14355,7 +14355,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -14378,7 +14378,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -14401,7 +14401,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -14424,7 +14424,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -14447,7 +14447,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -14470,7 +14470,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -14493,7 +14493,7 @@
         <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -14550,7 +14550,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
@@ -14565,7 +14565,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3">
@@ -14573,7 +14573,7 @@
         <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -14596,7 +14596,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
@@ -14619,7 +14619,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
@@ -14642,7 +14642,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -14665,7 +14665,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
@@ -14688,7 +14688,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C8" t="s">
         <v>87</v>
@@ -14711,7 +14711,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
         <v>87</v>
@@ -14734,7 +14734,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C10" t="s">
         <v>87</v>
@@ -14757,7 +14757,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C11" t="s">
         <v>87</v>
@@ -14780,7 +14780,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
@@ -14803,7 +14803,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
@@ -14826,7 +14826,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
@@ -14849,7 +14849,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
@@ -14872,7 +14872,7 @@
         <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C16" t="s">
         <v>87</v>
@@ -14895,7 +14895,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C17" t="s">
         <v>87</v>
@@ -14918,7 +14918,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C18" t="s">
         <v>87</v>
@@ -14941,7 +14941,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C19" t="s">
         <v>87</v>
@@ -14964,7 +14964,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C20" t="s">
         <v>87</v>
@@ -14987,7 +14987,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C21" t="s">
         <v>87</v>
@@ -15042,13 +15042,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2">
@@ -15056,7 +15056,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -15091,7 +15091,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -15126,7 +15126,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -15161,7 +15161,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
@@ -15196,7 +15196,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
@@ -15231,7 +15231,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
@@ -15266,7 +15266,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
@@ -15301,7 +15301,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C9" t="s">
         <v>64</v>
@@ -15336,7 +15336,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C10" t="s">
         <v>64</v>
@@ -15371,7 +15371,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C11" t="s">
         <v>64</v>
@@ -15406,7 +15406,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C12" t="s">
         <v>64</v>
@@ -15441,7 +15441,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C13" t="s">
         <v>64</v>
@@ -15476,7 +15476,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
@@ -15511,7 +15511,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C15" t="s">
         <v>64</v>
@@ -15546,7 +15546,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C16" t="s">
         <v>64</v>
@@ -15581,7 +15581,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -15616,7 +15616,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -15651,7 +15651,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C19" t="s">
         <v>64</v>
@@ -15686,7 +15686,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C20" t="s">
         <v>64</v>
@@ -15721,7 +15721,7 @@
         <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C21" t="s">
         <v>64</v>
@@ -15767,22 +15767,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2">
@@ -15790,7 +15790,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -15813,7 +15813,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -15836,7 +15836,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -15859,7 +15859,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -15882,7 +15882,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -15905,7 +15905,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -15928,7 +15928,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -15951,7 +15951,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -15974,7 +15974,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -15997,7 +15997,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -16020,7 +16020,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -16043,7 +16043,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -16066,7 +16066,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -16089,7 +16089,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -16112,7 +16112,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -16135,7 +16135,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -16158,7 +16158,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -16181,7 +16181,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -16204,7 +16204,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -16227,7 +16227,7 @@
         <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -16732,7 +16732,7 @@
         <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
@@ -16747,7 +16747,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
@@ -16755,7 +16755,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -16778,7 +16778,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
@@ -16801,7 +16801,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
@@ -16824,7 +16824,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -16847,7 +16847,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
@@ -16870,7 +16870,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C8" t="s">
         <v>87</v>
@@ -16893,7 +16893,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C9" t="s">
         <v>87</v>
@@ -16916,7 +16916,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C10" t="s">
         <v>87</v>
@@ -16939,7 +16939,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C11" t="s">
         <v>87</v>
@@ -16962,7 +16962,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
@@ -16985,7 +16985,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
@@ -17008,7 +17008,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
@@ -17031,7 +17031,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
@@ -17054,7 +17054,7 @@
         <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C16" t="s">
         <v>87</v>
@@ -17077,7 +17077,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C17" t="s">
         <v>87</v>
@@ -17100,7 +17100,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C18" t="s">
         <v>87</v>
@@ -17123,7 +17123,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C19" t="s">
         <v>87</v>
@@ -17146,7 +17146,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C20" t="s">
         <v>87</v>
@@ -17169,7 +17169,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C21" t="s">
         <v>87</v>
@@ -17224,13 +17224,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2">
@@ -17238,7 +17238,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -17273,7 +17273,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -17308,7 +17308,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -17343,7 +17343,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -17378,7 +17378,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -17413,7 +17413,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -17448,7 +17448,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
@@ -17483,7 +17483,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C9" t="s">
         <v>89</v>
@@ -17518,7 +17518,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C10" t="s">
         <v>89</v>
@@ -17553,7 +17553,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C11" t="s">
         <v>89</v>
@@ -17588,7 +17588,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C12" t="s">
         <v>89</v>
@@ -17623,7 +17623,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C13" t="s">
         <v>89</v>
@@ -17644,7 +17644,7 @@
         <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J13" t="s">
         <v>66</v>
@@ -17658,7 +17658,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C14" t="s">
         <v>89</v>
@@ -17693,7 +17693,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C15" t="s">
         <v>89</v>
@@ -17714,7 +17714,7 @@
         <v>147</v>
       </c>
       <c r="I15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J15" t="s">
         <v>22</v>
@@ -17739,22 +17739,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2">
@@ -17762,7 +17762,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C2" t="s">
         <v>96</v>
@@ -17785,7 +17785,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C3" t="s">
         <v>96</v>
@@ -17808,7 +17808,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C4" t="s">
         <v>96</v>
@@ -17831,7 +17831,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C5" t="s">
         <v>96</v>
@@ -17854,7 +17854,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
         <v>96</v>
@@ -17877,7 +17877,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C7" t="s">
         <v>96</v>
@@ -17900,7 +17900,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C8" t="s">
         <v>96</v>
@@ -17923,7 +17923,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C9" t="s">
         <v>96</v>
@@ -17946,7 +17946,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C10" t="s">
         <v>96</v>
@@ -17969,7 +17969,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C11" t="s">
         <v>96</v>
@@ -17992,7 +17992,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C12" t="s">
         <v>96</v>
@@ -18015,7 +18015,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C13" t="s">
         <v>96</v>
@@ -18038,7 +18038,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C14" t="s">
         <v>96</v>
@@ -18061,7 +18061,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C15" t="s">
         <v>96</v>
@@ -18118,7 +18118,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -18141,7 +18141,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -18164,7 +18164,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -18187,7 +18187,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -18210,7 +18210,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -18233,7 +18233,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -18256,7 +18256,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
@@ -18279,7 +18279,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C9" t="s">
         <v>89</v>
@@ -18302,7 +18302,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C10" t="s">
         <v>89</v>
@@ -18325,7 +18325,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C11" t="s">
         <v>89</v>
@@ -18348,7 +18348,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C12" t="s">
         <v>89</v>
@@ -18371,7 +18371,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C13" t="s">
         <v>89</v>
@@ -18394,7 +18394,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C14" t="s">
         <v>89</v>
@@ -18417,7 +18417,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C15" t="s">
         <v>89</v>
@@ -18472,13 +18472,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2">
@@ -18486,7 +18486,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -18521,7 +18521,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -18556,7 +18556,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C4" t="s">
         <v>132</v>
@@ -18591,7 +18591,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
@@ -18626,7 +18626,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C6" t="s">
         <v>132</v>
@@ -18661,7 +18661,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
@@ -18696,7 +18696,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
@@ -18731,7 +18731,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C9" t="s">
         <v>132</v>
@@ -18766,7 +18766,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C10" t="s">
         <v>64</v>
@@ -18801,7 +18801,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C11" t="s">
         <v>64</v>
@@ -18836,7 +18836,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C12" t="s">
         <v>132</v>
@@ -18871,7 +18871,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C13" t="s">
         <v>132</v>
@@ -18892,7 +18892,7 @@
         <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J13" t="s">
         <v>88</v>
@@ -18906,7 +18906,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
@@ -18941,7 +18941,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
@@ -18976,7 +18976,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C16" t="s">
         <v>64</v>
@@ -18997,7 +18997,7 @@
         <v>86</v>
       </c>
       <c r="I16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J16" t="s">
         <v>132</v>
@@ -19011,7 +19011,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -19032,7 +19032,7 @@
         <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="J17" t="s">
         <v>132</v>
@@ -19046,7 +19046,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -19081,7 +19081,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C19" t="s">
         <v>64</v>
@@ -19102,7 +19102,7 @@
         <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>493</v>
+        <v>377</v>
       </c>
       <c r="J19" t="s">
         <v>48</v>
@@ -19116,7 +19116,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C20" t="s">
         <v>132</v>
@@ -19151,7 +19151,7 @@
         <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
@@ -19220,7 +19220,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -19243,7 +19243,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -19266,7 +19266,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -19289,7 +19289,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -19312,7 +19312,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -19335,7 +19335,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -19358,7 +19358,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -19381,7 +19381,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -19404,7 +19404,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -19427,7 +19427,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -19450,7 +19450,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -19473,7 +19473,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -19496,7 +19496,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -19519,7 +19519,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -19542,7 +19542,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -19565,7 +19565,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -19588,7 +19588,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -19611,7 +19611,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -19634,7 +19634,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -19657,7 +19657,7 @@
         <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -19714,7 +19714,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
@@ -19737,7 +19737,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -19760,7 +19760,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
@@ -19783,7 +19783,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
@@ -19806,7 +19806,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -19829,7 +19829,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
@@ -19852,7 +19852,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C8" t="s">
         <v>87</v>
@@ -19875,7 +19875,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C9" t="s">
         <v>87</v>
@@ -19898,7 +19898,7 @@
         <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C10" t="s">
         <v>87</v>
@@ -19921,7 +19921,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C11" t="s">
         <v>87</v>
@@ -19944,7 +19944,7 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
@@ -19967,7 +19967,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
@@ -19990,7 +19990,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
@@ -20013,7 +20013,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
@@ -20036,7 +20036,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C16" t="s">
         <v>87</v>
@@ -20059,7 +20059,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C17" t="s">
         <v>87</v>
@@ -20082,7 +20082,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C18" t="s">
         <v>87</v>
@@ -20105,7 +20105,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C19" t="s">
         <v>87</v>
@@ -20128,7 +20128,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C20" t="s">
         <v>87</v>
@@ -20151,7 +20151,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C21" t="s">
         <v>87</v>
@@ -20766,7 +20766,7 @@
         <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="J17" t="s">
         <v>137</v>
@@ -20801,7 +20801,7 @@
         <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J18" t="s">
         <v>51</v>
@@ -20836,7 +20836,7 @@
         <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J19" t="s">
         <v>51</v>
@@ -22645,7 +22645,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -23036,7 +23036,7 @@
         <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J13" t="s">
         <v>64</v>
@@ -23141,7 +23141,7 @@
         <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="J16" t="s">
         <v>104</v>
@@ -23176,7 +23176,7 @@
         <v>85</v>
       </c>
       <c r="I17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J17" t="s">
         <v>48</v>
@@ -23757,7 +23757,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3">
@@ -24573,7 +24573,7 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="J12" t="s">
         <v>132</v>
@@ -24713,7 +24713,7 @@
         <v>147</v>
       </c>
       <c r="I16" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="J16" t="s">
         <v>104</v>
@@ -24748,7 +24748,7 @@
         <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J17" t="s">
         <v>48</v>
@@ -25352,7 +25352,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4">
@@ -26180,7 +26180,7 @@
         <v>134</v>
       </c>
       <c r="I13" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="J13" t="s">
         <v>67</v>
@@ -26285,7 +26285,7 @@
         <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="J16" t="s">
         <v>132</v>
@@ -26390,7 +26390,7 @@
         <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="J19" t="s">
         <v>66</v>
@@ -27546,10 +27546,10 @@
         <v>620</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -27558,16 +27558,16 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
         <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -27616,7 +27616,7 @@
         <v>622</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -27625,16 +27625,16 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
         <v>108</v>
@@ -28159,7 +28159,7 @@
         <v>134</v>
       </c>
       <c r="I20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J20" t="s">
         <v>64</v>
@@ -28786,19 +28786,19 @@
         <v>620</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -29200,10 +29200,10 @@
         <v>622</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
@@ -29212,7 +29212,7 @@
         <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -29252,13 +29252,13 @@
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -29329,16 +29329,16 @@
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4">
@@ -29375,16 +29375,16 @@
         <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>256</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
@@ -29504,45 +29504,45 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C12" t="s">
         <v>62</v>
       </c>
       <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
-        <v>103</v>
-      </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
         <v>54</v>
@@ -29550,22 +29550,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -29573,22 +29573,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C14" t="s">
         <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
         <v>54</v>
@@ -29978,7 +29978,7 @@
         <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="J5" t="s">
         <v>63</v>
@@ -31046,7 +31046,7 @@
         <v>675</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -31055,16 +31055,16 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>72</v>
@@ -31221,10 +31221,10 @@
         <v>680</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -31233,16 +31233,16 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -31658,7 +31658,7 @@
         <v>675</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -31667,7 +31667,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>72</v>
@@ -31773,10 +31773,10 @@
         <v>680</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -31785,7 +31785,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
@@ -32443,7 +32443,7 @@
         <v>71</v>
       </c>
       <c r="I18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J18" t="s">
         <v>132</v>

--- a/Divisions/Simulations.xlsx
+++ b/Divisions/Simulations.xlsx
@@ -1915,33 +1915,33 @@
     <t>Cartagena</t>
   </si>
   <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
     <t>Huesca</t>
   </si>
   <si>
+    <t>Villarreal B</t>
+  </si>
+  <si>
     <t>Albacete</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
     <t>Sp Gijon</t>
   </si>
   <si>
     <t>Leganes</t>
   </si>
   <si>
-    <t>Villarreal B</t>
+    <t>Tenerife</t>
   </si>
   <si>
     <t>Santander</t>
   </si>
   <si>
-    <t>Tenerife</t>
-  </si>
-  <si>
     <t>Oviedo</t>
   </si>
   <si>
@@ -1951,12 +1951,12 @@
     <t>Zaragoza</t>
   </si>
   <si>
+    <t>Mirandes</t>
+  </si>
+  <si>
     <t>Lugo</t>
   </si>
   <si>
-    <t>Mirandes</t>
-  </si>
-  <si>
     <t>Ibiza</t>
   </si>
   <si>
@@ -1981,7 +1981,7 @@
     <t>sp2_PTS_sim</t>
   </si>
   <si>
-    <t>90</t>
+    <t>96</t>
   </si>
   <si>
     <t>sc0_GD</t>
@@ -9550,13 +9550,13 @@
         <v>316</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -9571,7 +9571,7 @@
         <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -9690,13 +9690,13 @@
         <v>320</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -9711,7 +9711,7 @@
         <v>281</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K24" t="n">
         <v>23.0</v>
@@ -10357,19 +10357,19 @@
         <v>316</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -10386,13 +10386,13 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -10409,13 +10409,13 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -10426,7 +10426,7 @@
         <v>320</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -10435,7 +10435,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
@@ -10616,13 +10616,13 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -11121,45 +11121,45 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
       </c>
       <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
         <v>23</v>
       </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
         <v>173</v>
@@ -11179,59 +11179,59 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C18" t="s">
         <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C19" t="s">
         <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
         <v>55</v>
       </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
@@ -11282,10 +11282,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C22" t="s">
         <v>70</v>
@@ -11294,21 +11294,21 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s">
         <v>54</v>
       </c>
-      <c r="F22" t="s">
-        <v>86</v>
-      </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C23" t="s">
         <v>70</v>
@@ -11363,13 +11363,13 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -27670,13 +27670,13 @@
         <v>606</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -27691,7 +27691,7 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -27705,10 +27705,10 @@
         <v>607</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -27717,16 +27717,16 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -27740,28 +27740,28 @@
         <v>608</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -27775,13 +27775,13 @@
         <v>609</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -27796,7 +27796,7 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -27810,28 +27810,28 @@
         <v>610</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -27845,7 +27845,7 @@
         <v>611</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -27854,16 +27854,16 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>52</v>
@@ -27880,28 +27880,28 @@
         <v>612</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -27915,28 +27915,28 @@
         <v>613</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -27950,28 +27950,28 @@
         <v>614</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -27985,28 +27985,28 @@
         <v>615</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -28020,28 +28020,28 @@
         <v>616</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
         <v>57</v>
       </c>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -28055,28 +28055,28 @@
         <v>617</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -28090,28 +28090,28 @@
         <v>618</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -28125,28 +28125,28 @@
         <v>619</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -28160,28 +28160,28 @@
         <v>620</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -28195,28 +28195,28 @@
         <v>621</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
         <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -28230,28 +28230,28 @@
         <v>622</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
         <v>65</v>
       </c>
       <c r="J18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -28265,28 +28265,28 @@
         <v>623</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
         <v>161</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -28300,28 +28300,28 @@
         <v>624</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -28335,28 +28335,28 @@
         <v>625</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -28370,7 +28370,7 @@
         <v>626</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -28379,16 +28379,16 @@
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>280</v>
+        <v>163</v>
       </c>
       <c r="J22" t="s">
         <v>21</v>
@@ -28405,28 +28405,28 @@
         <v>627</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s">
         <v>162</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -28922,19 +28922,19 @@
         <v>606</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -28942,22 +28942,22 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>205</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -28965,22 +28965,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -28991,19 +28991,19 @@
         <v>607</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>250</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
@@ -29014,10 +29014,10 @@
         <v>611</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -29026,7 +29026,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7">
@@ -29037,7 +29037,7 @@
         <v>609</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -29046,7 +29046,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
         <v>70</v>
@@ -29057,22 +29057,22 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9">
@@ -29080,22 +29080,22 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -29106,19 +29106,19 @@
         <v>626</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -29129,19 +29129,19 @@
         <v>608</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
@@ -29149,22 +29149,22 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -29175,19 +29175,19 @@
         <v>610</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>212</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -29195,22 +29195,22 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -29221,19 +29221,19 @@
         <v>627</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -29241,22 +29241,22 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -29267,19 +29267,19 @@
         <v>621</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -29290,19 +29290,19 @@
         <v>622</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -29310,22 +29310,22 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -29333,22 +29333,22 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
@@ -29356,22 +29356,22 @@
         <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
@@ -29379,22 +29379,22 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
@@ -29405,19 +29405,19 @@
         <v>623</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -29465,10 +29465,10 @@
         <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -29488,16 +29488,16 @@
         <v>251</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>399</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4">
@@ -29511,24 +29511,24 @@
         <v>251</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>485</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C5" t="s">
         <v>251</v>
@@ -29537,21 +29537,21 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C6" t="s">
         <v>251</v>
@@ -29560,33 +29560,33 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C7" t="s">
         <v>251</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>332</v>
@@ -29594,30 +29594,30 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C8" t="s">
         <v>251</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>612</v>
@@ -29626,13 +29626,13 @@
         <v>251</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
         <v>249</v>
@@ -29640,68 +29640,68 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C10" t="s">
         <v>251</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C11" t="s">
         <v>251</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C12" t="s">
         <v>251</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
         <v>173</v>
@@ -29712,30 +29712,30 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C13" t="s">
         <v>251</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C14" t="s">
         <v>251</v>
@@ -29744,18 +29744,18 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>619</v>
@@ -29764,21 +29764,21 @@
         <v>251</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>620</v>
@@ -29787,13 +29787,13 @@
         <v>251</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
         <v>94</v>
@@ -29813,13 +29813,13 @@
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18">
@@ -29827,22 +29827,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C18" t="s">
         <v>251</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -29870,22 +29870,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C20" t="s">
         <v>251</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
         <v>47</v>
@@ -29893,10 +29893,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C21" t="s">
         <v>251</v>
@@ -29905,21 +29905,21 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C22" t="s">
         <v>251</v>
@@ -29928,36 +29928,36 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C23" t="s">
         <v>251</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
